--- a/COOL POSTER.xlsx
+++ b/COOL POSTER.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="53">
   <si>
     <t>№</t>
   </si>
@@ -114,9 +114,6 @@
     <t>Скретч-карти і постери</t>
   </si>
   <si>
-    <t>https://shop-cdn1.vigbo.tech/shops/192949/products/20931526/images/2-3f6d81cfdc670966a6594809fb082b26.png?version=1; https://shop-cdn1.vigbo.tech/shops/192949/products/20931526/images/2-5f487a30663a3c39d2def3403f6388a0.png; https://shop-cdn1.vigbo.tech/shops/192949/products/20931526/images/2-39fc153e85f428128add63375dc99fe9.png</t>
-  </si>
-  <si>
     <t>В наявності</t>
   </si>
   <si>
@@ -124,27 +121,105 @@
   </si>
   <si>
     <t>Україна</t>
+  </si>
+  <si>
+    <t>Постер  С ЛЮБОВЬЮ 30х40 см</t>
+  </si>
+  <si>
+    <t>Постер  З КОХАННЯМ 30х40 см</t>
+  </si>
+  <si>
+    <t>Постер  С ЛЮБОВЬЮ 21х30 см</t>
+  </si>
+  <si>
+    <t>Постер  З КОХАННЯМ 21х30 см</t>
+  </si>
+  <si>
+    <t>490.00 RUB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Размер постера - 21х30 см.   
+Если Вам нужен другой размер, введите в поиске название постера и Вы увидите все его размеры
+Постер напечатан на профессиональной матовой фотобумаге плотностью 180 г. 
+Постер будет бережно вставлен в белую пластиковую рамочку. Вам останиется только повесить ее на стену. В рамке есть крепежи, за которые рамку можно крепить на гвоздь или крючек.  
+Если Вам нужна рамка другого цвета, сообщите нам при подвтерждении заказа по телефону и мы сделаем нужный цвет. 
+</t>
+  </si>
+  <si>
+    <t>Розмір постера - 21х30 см.
+Якщо Вам потрібен інший розмір, введіть в пошуку назву постера і Ви побачите всі його розміри
+Постер надрукований на професійному матовому фотопапері щільністю 180 г.
+Постер буде дбайливо вставлений в білу пластикову рамочку. Вам залишиться тільки повісити її на стіну. У рамці є кріплення, за які рамку можна кріпити на цвях або гачок.
+Якщо Вам потрібна рамка іншого кольору, повідомте нам про це при подвтерждені замовлення по телефону і ми зробимо потрібний колір.</t>
+  </si>
+  <si>
+    <t>http://shop-cdn1.vigbo.tech/shops/90692/products/11823143/images/2-3f6d81cfdc670966a6594809fb082b26.png; http://shop-cdn1.vigbo.tech/shops/90692/products/11823143/images/2-39fc153e85f428128add63375dc99fe9.png; http://shop-cdn1.vigbo.tech/shops/90692/products/11823143/images/2-5f487a30663a3c39d2def3403f6388a0.png;</t>
+  </si>
+  <si>
+    <t>690.00 RUB</t>
   </si>
   <si>
     <t xml:space="preserve">Размер постера - 30х40 см.   
 Если Вам нужен другой размер, введите в поиске название постера и Вы увидите все его размеры
-Постер напечатан на професиональной матовой фотобумаге плотностью 180 г. 
-Отправляется в подарочном картонном тубусе. На каждом тубусе мы пишем имя его владельца, чтобы Вы знали, что он был напечатан специально для Вас. 
-Рамочку для постера можно купить на сайте, подобрав цвет под Ваш интерьер. Размер рамочки нужен такой же, как и постера.
+Постер напечатан на профессиональной матовой фотобумаге плотностью 180 г. 
+Постер будет бережно вставлен в белую пластиковую рамочку. Вам останиется только повесить ее на стену. В рамке есть крепежи, за которые рамку можно крепить на гвоздь или крючек.  
+Если Вам нужна рамка другого цвета, сообщите нам при подвтерждении заказа по телефону и мы сделаем нужный цвет. 
 </t>
   </si>
   <si>
     <t>Розмір постера - 30х40 см.
 Якщо Вам потрібен інший розмір, введіть в пошуку назву постера і Ви побачите всі його розміри
-Постер надрукований на професійному матовому фотопапері щільністью 180 г.
-Відправляється в подарунковому картонному тубусі. На кожному тубусі ми пишемо ім'я його власника, щоб Ви знали, що він був надрукований спеціально для Вас.
-Рамочку для постера можна купити на сайті, підібравши колір під Ваш інтер'єр. Розмір рамочки потрібен такий же, як і постера.</t>
-  </si>
-  <si>
-    <t>Постер  С ЛЮБОВЬЮ 30х40 см</t>
-  </si>
-  <si>
-    <t>Постер  З КОХАННЯМ 30х40 см</t>
+Постер надрукований на професійному матовому фотопапері щільністю 180 г.
+Постер буде дбайливо вставлений в білу пластикову рамочку. Вам залишиться тільки повісити її на стіну. У рамці є кріплення, за які рамку можна кріпити на цвях або гачок.
+Якщо Вам потрібна рамка іншого кольору, повідомте нам про це при подвтерждені замовлення по телефону і ми зробимо потрібний колір.</t>
+  </si>
+  <si>
+    <t>Постер  С ЛЮБОВЬЮ 40х50 см</t>
+  </si>
+  <si>
+    <t>Постер  З КОХАННЯМ 40х50 см</t>
+  </si>
+  <si>
+    <t>Постер  С ЛЮБОВЬЮ 50х70 см</t>
+  </si>
+  <si>
+    <t>Постер  З КОХАННЯМ 50х70 см</t>
+  </si>
+  <si>
+    <t>790.00 RUB</t>
+  </si>
+  <si>
+    <t>990.00 RUB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Размер постера - 40х50 см.   
+Если Вам нужен другой размер, введите в поиске название постера и Вы увидите все его размеры
+Постер напечатан на профессиональной матовой фотобумаге плотностью 180 г. 
+Постер будет бережно вставлен в белую пластиковую рамочку. Вам останиется только повесить ее на стену. В рамке есть крепежи, за которые рамку можно крепить на гвоздь или крючек.  
+Если Вам нужна рамка другого цвета, сообщите нам при подвтерждении заказа по телефону и мы сделаем нужный цвет. 
+</t>
+  </si>
+  <si>
+    <t>Розмір постера - 40х50 см.
+Якщо Вам потрібен інший розмір, введіть в пошуку назву постера і Ви побачите всі його розміри
+Постер надрукований на професійному матовому фотопапері щільністю 180 г.
+Постер буде дбайливо вставлений в білу пластикову рамочку. Вам залишиться тільки повісити її на стіну. У рамці є кріплення, за які рамку можна кріпити на цвях або гачок.
+Якщо Вам потрібна рамка іншого кольору, повідомте нам про це при подвтерждені замовлення по телефону і ми зробимо потрібний колір.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Размер постера - 50х70 см.   
+Если Вам нужен другой размер, введите в поиске название постера и Вы увидите все его размеры
+Постер напечатан на профессиональной матовой фотобумаге плотностью 180 г. 
+Постер будет бережно вставлен в белую пластиковую рамочку. Вам останиется только повесить ее на стену. В рамке есть крепежи, за которые рамку можно крепить на гвоздь или крючек.  
+Если Вам нужна рамка другого цвета, сообщите нам при подвтерждении заказа по телефону и мы сделаем нужный цвет. 
+</t>
+  </si>
+  <si>
+    <t>Розмір постера - 50х70 см.
+Якщо Вам потрібен інший розмір, введіть в пошуку назву постера і Ви побачите всі його розміри
+Постер надрукований на професійному матовому фотопапері щільністю 180 г.
+Постер буде дбайливо вставлений в білу пластикову рамочку. Вам залишиться тільки повісити її на стіну. У рамці є кріплення, за які рамку можна кріпити на цвях або гачок.
+Якщо Вам потрібна рамка іншого кольору, повідомте нам про це при подвтерждені замовлення по телефону і ми зробимо потрібний колір.</t>
   </si>
 </sst>
 </file>
@@ -607,8 +682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H2" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -728,124 +803,220 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1">
+        <v>16142438</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="1">
-        <v>4387</v>
-      </c>
-      <c r="E3" s="5">
-        <v>199</v>
-      </c>
       <c r="F3" s="5">
-        <v>290</v>
+        <v>21</v>
       </c>
       <c r="G3" s="24" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H3" s="24" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>28</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N3" s="7"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1">
-        <v>350</v>
+        <v>210</v>
       </c>
       <c r="Q3" s="1">
-        <v>8</v>
+        <v>300</v>
       </c>
       <c r="R3" s="1">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="S3" s="1">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="360" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="1">
+        <v>16142441</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="5">
+        <v>30</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="N4" s="7"/>
       <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P4" s="1">
+        <v>300</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>400</v>
+      </c>
+      <c r="R4" s="1">
+        <v>50</v>
+      </c>
+      <c r="S4" s="1">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="360" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="1">
+        <v>16142444</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="5">
+        <v>40</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="N5" s="7"/>
       <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P5" s="1">
+        <v>400</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>500</v>
+      </c>
+      <c r="R5" s="1">
+        <v>50</v>
+      </c>
+      <c r="S5" s="1">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="360" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>4</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="1">
+        <v>16142447</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="5">
+        <v>50</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="N6" s="7"/>
       <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
+      <c r="P6" s="1">
+        <v>500</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>700</v>
+      </c>
+      <c r="R6" s="1">
+        <v>50</v>
+      </c>
+      <c r="S6" s="1">
+        <v>2000</v>
+      </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
